--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2476086.082180746</v>
+        <v>-2478452.798751303</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7240286.839065497</v>
+        <v>7240286.839065496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>164.7079191878407</v>
       </c>
       <c r="G2" t="n">
-        <v>364.9001547120591</v>
+        <v>414.3274040337309</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>172.8743455285721</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>88.60232613989575</v>
+        <v>88.60232613989578</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>186.7946578787481</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18.90457678584316</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2676262293242</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>5.632503792065473</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.8216677443631</v>
@@ -756,7 +756,7 @@
         <v>107.1954774807849</v>
       </c>
       <c r="I3" t="n">
-        <v>71.42944891302469</v>
+        <v>29.51278496684699</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>67.75739391928587</v>
+        <v>67.7573939192859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>161.9900470300693</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.0613093267476</v>
       </c>
       <c r="U3" t="n">
         <v>225.9070498823664</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>57.15779936257165</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>35.59375372215615</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.2936259899528</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.52729852330246</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>379.6569308182857</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>147.1203987146764</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7104230564944</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>43.00979488960158</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.48944721115194</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>94.86733109733534</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>230.2634979541059</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>78.9616870149585</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>106.5867442799594</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>24.16503758854137</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.1179685832155</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>165.6941249379801</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.19569619650069</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,7 +2059,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>187.4330611973848</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>15.11174121957122</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433948</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124633</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996205</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124633</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>41.9570160514543</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231187</v>
       </c>
       <c r="G38" t="n">
         <v>363.9465890348609</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3667,16 +3667,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124552</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870207</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3749,7 +3749,7 @@
         <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231175</v>
+        <v>359.9009091231184</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348609</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1339.342236615703</v>
+        <v>995.2315829881052</v>
       </c>
       <c r="C2" t="n">
-        <v>970.379719675291</v>
+        <v>626.2690660476935</v>
       </c>
       <c r="D2" t="n">
-        <v>970.379719675291</v>
+        <v>626.2690660476935</v>
       </c>
       <c r="E2" t="n">
-        <v>584.5914670770467</v>
+        <v>626.2690660476935</v>
       </c>
       <c r="F2" t="n">
-        <v>584.5914670770467</v>
+        <v>459.8974305044201</v>
       </c>
       <c r="G2" t="n">
-        <v>216.0054522163809</v>
+        <v>41.3849011774191</v>
       </c>
       <c r="H2" t="n">
-        <v>216.0054522163809</v>
+        <v>41.3849011774191</v>
       </c>
       <c r="I2" t="n">
-        <v>41.38490117741912</v>
+        <v>41.3849011774191</v>
       </c>
       <c r="J2" t="n">
-        <v>111.5075126830056</v>
+        <v>111.5075126830054</v>
       </c>
       <c r="K2" t="n">
-        <v>337.3479341657405</v>
+        <v>337.3479341657403</v>
       </c>
       <c r="L2" t="n">
-        <v>669.7995747334189</v>
+        <v>669.7995747334185</v>
       </c>
       <c r="M2" t="n">
-        <v>1056.322626911265</v>
+        <v>1056.322626911264</v>
       </c>
       <c r="N2" t="n">
         <v>1434.468028624945</v>
       </c>
       <c r="O2" t="n">
-        <v>1746.352370691379</v>
+        <v>1746.352370691378</v>
       </c>
       <c r="P2" t="n">
-        <v>1974.864058038272</v>
+        <v>1974.864058038271</v>
       </c>
       <c r="Q2" t="n">
-        <v>2069.245058870956</v>
+        <v>2069.245058870955</v>
       </c>
       <c r="R2" t="n">
-        <v>1979.747759739748</v>
+        <v>1979.747759739747</v>
       </c>
       <c r="S2" t="n">
-        <v>1979.747759739748</v>
+        <v>1791.066287134951</v>
       </c>
       <c r="T2" t="n">
-        <v>1979.747759739748</v>
+        <v>1771.970755028039</v>
       </c>
       <c r="U2" t="n">
-        <v>1725.942076679824</v>
+        <v>1771.970755028039</v>
       </c>
       <c r="V2" t="n">
-        <v>1725.942076679824</v>
+        <v>1771.970755028039</v>
       </c>
       <c r="W2" t="n">
-        <v>1725.942076679824</v>
+        <v>1771.970755028039</v>
       </c>
       <c r="X2" t="n">
-        <v>1725.942076679824</v>
+        <v>1771.970755028039</v>
       </c>
       <c r="Y2" t="n">
-        <v>1725.942076679824</v>
+        <v>1381.831423052227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>699.3977066056564</v>
+        <v>946.8372118781608</v>
       </c>
       <c r="C3" t="n">
-        <v>524.9446773245294</v>
+        <v>772.3841825970338</v>
       </c>
       <c r="D3" t="n">
-        <v>519.2552795547663</v>
+        <v>623.4497729357826</v>
       </c>
       <c r="E3" t="n">
-        <v>360.0178245493108</v>
+        <v>464.2123179303271</v>
       </c>
       <c r="F3" t="n">
-        <v>360.0178245493108</v>
+        <v>317.6777599572121</v>
       </c>
       <c r="G3" t="n">
-        <v>221.8141197570248</v>
+        <v>179.4740551649261</v>
       </c>
       <c r="H3" t="n">
-        <v>113.5358596754239</v>
+        <v>71.19579508332515</v>
       </c>
       <c r="I3" t="n">
-        <v>41.38490117741912</v>
+        <v>41.3849011774191</v>
       </c>
       <c r="J3" t="n">
-        <v>41.38490117741912</v>
+        <v>89.45606851916249</v>
       </c>
       <c r="K3" t="n">
-        <v>41.38490117741912</v>
+        <v>298.2381932838944</v>
       </c>
       <c r="L3" t="n">
-        <v>383.5226295249169</v>
+        <v>640.375921631392</v>
       </c>
       <c r="M3" t="n">
-        <v>834.7604425526574</v>
+        <v>1091.613734659132</v>
       </c>
       <c r="N3" t="n">
-        <v>1313.648191178681</v>
+        <v>1280.932637611799</v>
       </c>
       <c r="O3" t="n">
-        <v>1685.321244604657</v>
+        <v>1652.605691037774</v>
       </c>
       <c r="P3" t="n">
-        <v>1966.618569576803</v>
+        <v>1933.903016009921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2069.245058870956</v>
+        <v>2069.245058870955</v>
       </c>
       <c r="R3" t="n">
-        <v>2000.803246831273</v>
+        <v>2000.803246831272</v>
       </c>
       <c r="S3" t="n">
-        <v>2000.803246831273</v>
+        <v>1837.176936699889</v>
       </c>
       <c r="T3" t="n">
-        <v>2000.803246831273</v>
+        <v>1637.115008087013</v>
       </c>
       <c r="U3" t="n">
-        <v>1772.614307556155</v>
+        <v>1408.926068811895</v>
       </c>
       <c r="V3" t="n">
-        <v>1537.462199324413</v>
+        <v>1408.926068811895</v>
       </c>
       <c r="W3" t="n">
-        <v>1283.224842596211</v>
+        <v>1154.688712083694</v>
       </c>
       <c r="X3" t="n">
-        <v>1075.373342390678</v>
+        <v>946.8372118781608</v>
       </c>
       <c r="Y3" t="n">
-        <v>867.6130436257245</v>
+        <v>946.8372118781608</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242.8509873920903</v>
+        <v>77.33818776545561</v>
       </c>
       <c r="C4" t="n">
-        <v>242.8509873920903</v>
+        <v>77.33818776545561</v>
       </c>
       <c r="D4" t="n">
-        <v>185.1158365208058</v>
+        <v>77.33818776545561</v>
       </c>
       <c r="E4" t="n">
-        <v>185.1158365208058</v>
+        <v>77.33818776545561</v>
       </c>
       <c r="F4" t="n">
-        <v>185.1158365208058</v>
+        <v>41.3849011774191</v>
       </c>
       <c r="G4" t="n">
-        <v>185.1158365208058</v>
+        <v>41.3849011774191</v>
       </c>
       <c r="H4" t="n">
-        <v>185.1158365208058</v>
+        <v>41.3849011774191</v>
       </c>
       <c r="I4" t="n">
-        <v>41.38490117741912</v>
+        <v>41.3849011774191</v>
       </c>
       <c r="J4" t="n">
-        <v>41.38490117741912</v>
+        <v>41.3849011774191</v>
       </c>
       <c r="K4" t="n">
-        <v>69.6594719011663</v>
+        <v>69.65947190116624</v>
       </c>
       <c r="L4" t="n">
-        <v>161.3676224365354</v>
+        <v>161.3676224365353</v>
       </c>
       <c r="M4" t="n">
-        <v>268.4501318390654</v>
+        <v>268.4501318390652</v>
       </c>
       <c r="N4" t="n">
-        <v>378.4210749310332</v>
+        <v>378.4210749310329</v>
       </c>
       <c r="O4" t="n">
-        <v>463.9807446748964</v>
+        <v>463.9807446748962</v>
       </c>
       <c r="P4" t="n">
-        <v>513.6711408015825</v>
+        <v>513.6711408015822</v>
       </c>
       <c r="Q4" t="n">
-        <v>463.6435665356204</v>
+        <v>513.6711408015822</v>
       </c>
       <c r="R4" t="n">
-        <v>463.6435665356204</v>
+        <v>513.6711408015822</v>
       </c>
       <c r="S4" t="n">
-        <v>463.6435665356204</v>
+        <v>513.6711408015822</v>
       </c>
       <c r="T4" t="n">
-        <v>463.6435665356204</v>
+        <v>513.6711408015822</v>
       </c>
       <c r="U4" t="n">
-        <v>463.6435665356204</v>
+        <v>513.6711408015822</v>
       </c>
       <c r="V4" t="n">
-        <v>463.6435665356204</v>
+        <v>258.9866525956953</v>
       </c>
       <c r="W4" t="n">
-        <v>463.6435665356204</v>
+        <v>258.9866525956953</v>
       </c>
       <c r="X4" t="n">
-        <v>463.6435665356204</v>
+        <v>258.9866525956953</v>
       </c>
       <c r="Y4" t="n">
-        <v>242.8509873920903</v>
+        <v>258.9866525956953</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1297.230130518035</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C5" t="n">
-        <v>1297.230130518035</v>
+        <v>550.6130699431321</v>
       </c>
       <c r="D5" t="n">
-        <v>938.9644319112842</v>
+        <v>550.6130699431321</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>550.6130699431321</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>543.6675691939287</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>529.7441651325196</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>202.5494451685224</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1683.829970582156</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1683.829970582156</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,16 +4659,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>381.6292235663332</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>381.6292235663332</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="E7" t="n">
-        <v>233.71612998394</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>233.71612998394</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>233.71612998394</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>233.71612998394</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>97.38721908258827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1490.449956290451</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1132.184257683701</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.575150942547</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.575150942547</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4966,37 +4966,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5042,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>786.6724891157196</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5078,7 +5078,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6097761177758</v>
+        <v>737.3554149786656</v>
       </c>
       <c r="C13" t="n">
-        <v>801.6097761177758</v>
+        <v>657.5961351655762</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W13" t="n">
-        <v>801.6097761177758</v>
+        <v>1186.137545020213</v>
       </c>
       <c r="X13" t="n">
-        <v>801.6097761177758</v>
+        <v>958.1479941221958</v>
       </c>
       <c r="Y13" t="n">
-        <v>801.6097761177758</v>
+        <v>737.3554149786656</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,16 +5279,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>806.161341878638</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1670.680157531993</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>529.525731183237</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C16" t="n">
-        <v>360.5895482553301</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D16" t="n">
-        <v>360.5895482553301</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553301</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1931.934337227389</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1931.934337227389</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1710.167721796915</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1421.064854922559</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1421.064854922559</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783409</v>
+        <v>1131.647684885598</v>
       </c>
       <c r="X16" t="n">
-        <v>909.2731541783409</v>
+        <v>1131.647684885598</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.1741960134767</v>
+        <v>910.8551057420682</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>656.5883407921837</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>489.220537824527</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1920.79225782541</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1729.106373652236</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1507.339758221763</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1218.236891347406</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V19" t="n">
-        <v>963.5524031415191</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W19" t="n">
-        <v>674.1352331045584</v>
+        <v>1066.226356520441</v>
       </c>
       <c r="X19" t="n">
-        <v>446.1456822065411</v>
+        <v>838.2368056224234</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.1456822065411</v>
+        <v>838.2368056224234</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1650.184003770974</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.715908442899</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.758180993045</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1767.017141662901</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1545.250526232427</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1256.147659358071</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1001.463171152184</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>712.0460011152229</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>484.0564502172056</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>263.2638710736754</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866384</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139993</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969822</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>278.5282561439494</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>278.5282561439494</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>278.5282561439494</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>278.5282561439494</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>278.5282561439494</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>110.8254195186684</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>908.9588510157366</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>680.9693001177193</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>460.1767209741892</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6233,13 +6233,13 @@
         <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.715908442899</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N26" t="n">
-        <v>2730.494725501681</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O26" t="n">
-        <v>3610.459375831136</v>
+        <v>3678.485594538922</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6370,13 +6370,13 @@
         <v>463.8981507430903</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6467,19 +6467,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6601,19 +6601,19 @@
         <v>667.0286178416725</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430903</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932532</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160455</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819766</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6704,16 +6704,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F34" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6889,7 +6889,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
@@ -6898,10 +6898,10 @@
         <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388313</v>
@@ -6938,19 +6938,19 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>1045.699547878783</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1496.733761127192</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>2030.265665799117</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.044482857899</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737236</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
         <v>3474.791320094414</v>
@@ -6959,7 +6959,7 @@
         <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309626</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257043</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415475</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,25 +7093,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982168</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7132,13 +7132,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7172,31 +7172,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737236</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309626</v>
@@ -7208,7 +7208,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7318,7 +7318,7 @@
         <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7327,16 +7327,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7351,16 +7351,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7388,13 +7388,13 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
         <v>698.9037015467791</v>
@@ -7433,7 +7433,7 @@
         <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7454,7 +7454,7 @@
         <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7567,13 +7567,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7649,28 +7649,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>822.9179334642249</v>
       </c>
       <c r="L44" t="n">
-        <v>1496.733761127192</v>
+        <v>1273.952146712634</v>
       </c>
       <c r="M44" t="n">
-        <v>2030.265665799117</v>
+        <v>1807.484051384558</v>
       </c>
       <c r="N44" t="n">
-        <v>2577.044482857899</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.016953737236</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
@@ -7682,7 +7682,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>77.53430065177912</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>53.57420189668777</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>186.8485908351117</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>177.0312740319279</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>189.7998007892643</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,10 +8936,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>192.1853085771352</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>67.53663776704252</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9881,16 +9881,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>192.1853085771353</v>
+        <v>123.471956347048</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>248.8400772687159</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>277.220684154413</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>343.5485285966295</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>277.220684154413</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>277.220684154413</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>52.18875040233416</v>
       </c>
       <c r="L44" t="n">
-        <v>277.220684154413</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>387.8765894257111</v>
+        <v>242.1681265538707</v>
       </c>
       <c r="G2" t="n">
-        <v>49.42724932167175</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>186.7946578787481</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>88.28513408366933</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182161</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761677</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>179.9362540566316</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>64.76711508150596</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.4666847688793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.55269616064777</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.73645647354664</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.335964134057093</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>129.6432736947496</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1292601.310254017</v>
+        <v>1292601.310254016</v>
       </c>
     </row>
     <row r="3">
@@ -26314,10 +26314,10 @@
         <v>17853.33382022327</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
         <v>19854.08934434915</v>
@@ -26338,7 +26338,7 @@
         <v>20526.04424660705</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
@@ -26347,10 +26347,10 @@
         <v>20526.04424660708</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660708</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660707</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660708</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407149.1034425587</v>
+        <v>407149.1034425584</v>
       </c>
       <c r="C3" t="n">
-        <v>173763.5037905481</v>
+        <v>173763.5037905483</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>172931.4978406821</v>
       </c>
       <c r="K3" t="n">
-        <v>40400.60123641943</v>
+        <v>40400.60123641949</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37580.109294874</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499374</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499376</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499379</v>
+      </c>
+      <c r="H4" t="n">
         <v>25090.7236749938</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>40547.88465321286</v>
+        <v>40547.88465321287</v>
       </c>
       <c r="K4" t="n">
-        <v>40547.88465321287</v>
+        <v>40547.88465321288</v>
       </c>
       <c r="L4" t="n">
         <v>40547.88465321287</v>
@@ -26451,13 +26451,13 @@
         <v>62292.78252777374</v>
       </c>
       <c r="N4" t="n">
+        <v>62292.78252777379</v>
+      </c>
+      <c r="O4" t="n">
+        <v>62292.78252777374</v>
+      </c>
+      <c r="P4" t="n">
         <v>62292.78252777375</v>
-      </c>
-      <c r="O4" t="n">
-        <v>62292.78252777378</v>
-      </c>
-      <c r="P4" t="n">
-        <v>62292.78252777374</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70369.11453112292</v>
+        <v>70369.1145311229</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>100332.6710141021</v>
@@ -26500,16 +26500,16 @@
         <v>100332.6710141021</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-648699.3926286891</v>
+        <v>-648966.6636713269</v>
       </c>
       <c r="C6" t="n">
-        <v>-437161.043535082</v>
+        <v>-437161.0435350821</v>
       </c>
       <c r="D6" t="n">
         <v>-263397.5397445339</v>
       </c>
       <c r="E6" t="n">
-        <v>-828997.5665777649</v>
+        <v>-829064.7620679908</v>
       </c>
       <c r="F6" t="n">
-        <v>-101620.1525843582</v>
+        <v>-101687.3480745841</v>
       </c>
       <c r="G6" t="n">
-        <v>-101620.1525843583</v>
+        <v>-101687.3480745841</v>
       </c>
       <c r="H6" t="n">
-        <v>-101620.1525843583</v>
+        <v>-101687.3480745841</v>
       </c>
       <c r="I6" t="n">
-        <v>-101620.1525843583</v>
+        <v>-101687.3480745841</v>
       </c>
       <c r="J6" t="n">
-        <v>-293286.0092613901</v>
+        <v>-293286.00926139</v>
       </c>
       <c r="K6" t="n">
-        <v>-160755.1126571273</v>
+        <v>-160755.1126571274</v>
       </c>
       <c r="L6" t="n">
         <v>-120354.5114207079</v>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859252</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6142034992843</v>
+        <v>242.6142034992841</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.3112647177389</v>
+        <v>517.3112647177387</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6142034992843</v>
+        <v>242.6142034992841</v>
       </c>
       <c r="C3" t="n">
-        <v>135.1294607178023</v>
+        <v>135.1294607178025</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.3112647177389</v>
+        <v>517.3112647177387</v>
       </c>
       <c r="C4" t="n">
-        <v>156.9760080368167</v>
+        <v>156.9760080368169</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.3112647177389</v>
+        <v>517.3112647177387</v>
       </c>
       <c r="K4" t="n">
-        <v>156.9760080368167</v>
+        <v>156.9760080368169</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540587</v>
+        <v>340.0491884540588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.3112647177389</v>
+        <v>517.3112647177387</v>
       </c>
       <c r="K4" t="n">
-        <v>156.9760080368167</v>
+        <v>156.9760080368169</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>18.99945631600036</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4861680993368</v>
+        <v>329.4861680993369</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>172.8743455285721</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.8263272492846</v>
+        <v>199.9217504634415</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2676262293242</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>141.8125617725733</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.91666394617769</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>161.9900470300693</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.0613093267476</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>91.4576736556407</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>109.8272943007751</v>
       </c>
       <c r="G4" t="n">
         <v>167.5534783357551</v>
@@ -27555,10 +27555,10 @@
         <v>158.3373906874019</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.2936259899528</v>
       </c>
       <c r="J4" t="n">
-        <v>62.42785781152632</v>
+        <v>62.42785781152634</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>49.52729852330248</v>
       </c>
       <c r="R4" t="n">
         <v>157.6217544836046</v>
@@ -27594,7 +27594,7 @@
         <v>286.2951656643434</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>2.273439253976051</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.810917530184867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>127.7235395900748</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>2.190164298935429</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>289.2443944523286</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>287.0630389749264</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859278</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>46.97513661859252</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859392</v>
+        <v>46.97513661859301</v>
       </c>
       <c r="G41" t="n">
         <v>46.97513661859252</v>
@@ -31039,16 +31039,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9753334814041571</v>
+        <v>0.9753334814041565</v>
       </c>
       <c r="H2" t="n">
-        <v>9.988634016430327</v>
+        <v>9.98863401643032</v>
       </c>
       <c r="I2" t="n">
-        <v>37.6015440418338</v>
+        <v>37.60154404183378</v>
       </c>
       <c r="J2" t="n">
-        <v>82.78021006732615</v>
+        <v>82.78021006732611</v>
       </c>
       <c r="K2" t="n">
         <v>124.0660763351641</v>
@@ -31057,13 +31057,13 @@
         <v>153.9149383666866</v>
       </c>
       <c r="M2" t="n">
-        <v>171.2600251666078</v>
+        <v>171.2600251666077</v>
       </c>
       <c r="N2" t="n">
-        <v>174.0311914206474</v>
+        <v>174.0311914206473</v>
       </c>
       <c r="O2" t="n">
-        <v>164.3327191149348</v>
+        <v>164.3327191149347</v>
       </c>
       <c r="P2" t="n">
         <v>140.2541737927696</v>
@@ -31072,16 +31072,16 @@
         <v>105.3250434899832</v>
       </c>
       <c r="R2" t="n">
-        <v>61.26679180125394</v>
+        <v>61.2667918012539</v>
       </c>
       <c r="S2" t="n">
-        <v>22.22541170749725</v>
+        <v>22.22541170749724</v>
       </c>
       <c r="T2" t="n">
-        <v>4.2695223148467</v>
+        <v>4.269522314846697</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07802667851233255</v>
+        <v>0.07802667851233251</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5218494188475171</v>
+        <v>0.5218494188475168</v>
       </c>
       <c r="H3" t="n">
-        <v>5.039966755711547</v>
+        <v>5.039966755711545</v>
       </c>
       <c r="I3" t="n">
-        <v>17.9671839383904</v>
+        <v>17.96718393839038</v>
       </c>
       <c r="J3" t="n">
-        <v>49.30332601488757</v>
+        <v>49.30332601488755</v>
       </c>
       <c r="K3" t="n">
-        <v>84.26723707767123</v>
+        <v>84.26723707767117</v>
       </c>
       <c r="L3" t="n">
         <v>113.3076994738874</v>
       </c>
       <c r="M3" t="n">
-        <v>132.2247409071099</v>
+        <v>132.2247409071098</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7243363519251</v>
+        <v>135.724336351925</v>
       </c>
       <c r="O3" t="n">
-        <v>124.1612518606196</v>
+        <v>124.1612518606195</v>
       </c>
       <c r="P3" t="n">
-        <v>99.65035086747018</v>
+        <v>99.65035086747012</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.61362055323745</v>
+        <v>66.61362055323741</v>
       </c>
       <c r="R3" t="n">
-        <v>32.40044023335726</v>
+        <v>32.40044023335724</v>
       </c>
       <c r="S3" t="n">
-        <v>9.693124073768567</v>
+        <v>9.693124073768562</v>
       </c>
       <c r="T3" t="n">
-        <v>2.103419368073983</v>
+        <v>2.103419368073981</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0343321986083893</v>
+        <v>0.03433219860838928</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4375010227036273</v>
+        <v>0.4375010227036271</v>
       </c>
       <c r="H4" t="n">
-        <v>3.889781820037707</v>
+        <v>3.889781820037705</v>
       </c>
       <c r="I4" t="n">
-        <v>13.15684893730545</v>
+        <v>13.15684893730544</v>
       </c>
       <c r="J4" t="n">
-        <v>30.93132230514645</v>
+        <v>30.93132230514643</v>
       </c>
       <c r="K4" t="n">
-        <v>50.82966427411233</v>
+        <v>50.8296642741123</v>
       </c>
       <c r="L4" t="n">
-        <v>65.04447022995565</v>
+        <v>65.04447022995562</v>
       </c>
       <c r="M4" t="n">
-        <v>68.58027394980586</v>
+        <v>68.58027394980581</v>
       </c>
       <c r="N4" t="n">
-        <v>66.94958831972876</v>
+        <v>66.94958831972872</v>
       </c>
       <c r="O4" t="n">
-        <v>61.83878091814545</v>
+        <v>61.83878091814542</v>
       </c>
       <c r="P4" t="n">
-        <v>52.91376005499141</v>
+        <v>52.91376005499138</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.63474472839192</v>
+        <v>36.6347447283919</v>
       </c>
       <c r="R4" t="n">
-        <v>19.67163689356491</v>
+        <v>19.6716368935649</v>
       </c>
       <c r="S4" t="n">
-        <v>7.624449641116848</v>
+        <v>7.624449641116843</v>
       </c>
       <c r="T4" t="n">
-        <v>1.869322551551862</v>
+        <v>1.869322551551861</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02386369214747061</v>
+        <v>0.02386369214747059</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -33269,10 +33269,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>70.83092071271363</v>
+        <v>70.83092071271359</v>
       </c>
       <c r="K2" t="n">
         <v>228.1216378613483</v>
       </c>
       <c r="L2" t="n">
-        <v>335.8097379471499</v>
+        <v>335.8097379471498</v>
       </c>
       <c r="M2" t="n">
         <v>390.4273254321675</v>
       </c>
       <c r="N2" t="n">
-        <v>381.9650522360406</v>
+        <v>381.9650522360405</v>
       </c>
       <c r="O2" t="n">
-        <v>315.0346889559934</v>
+        <v>315.0346889559933</v>
       </c>
       <c r="P2" t="n">
-        <v>230.8198862089828</v>
+        <v>230.8198862089827</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.33434427543844</v>
+        <v>95.33434427543837</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>48.55673468862969</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>210.8910351158908</v>
       </c>
       <c r="L3" t="n">
         <v>345.5936649974724</v>
       </c>
       <c r="M3" t="n">
-        <v>455.7957707350915</v>
+        <v>455.7957707350914</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7249986121453</v>
+        <v>191.2312151037034</v>
       </c>
       <c r="O3" t="n">
-        <v>375.4273266929047</v>
+        <v>375.4273266929046</v>
       </c>
       <c r="P3" t="n">
         <v>284.1387120930771</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.6631204991438</v>
+        <v>136.709134203065</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.56017244822947</v>
+        <v>28.56017244822944</v>
       </c>
       <c r="L4" t="n">
-        <v>92.63449549027179</v>
+        <v>92.63449549027176</v>
       </c>
       <c r="M4" t="n">
         <v>108.1641509116464</v>
       </c>
       <c r="N4" t="n">
-        <v>111.0817606989574</v>
+        <v>111.0817606989573</v>
       </c>
       <c r="O4" t="n">
-        <v>86.42390883218513</v>
+        <v>86.42390883218509</v>
       </c>
       <c r="P4" t="n">
-        <v>50.1923193198849</v>
+        <v>50.19231931988487</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>507.3053774831311</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35647,7 +35647,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>526.9910873446648</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
@@ -35656,10 +35656,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>739.5540726950834</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>744.4871439900467</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36139,10 +36139,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>404.727924322443</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36601,16 +36601,16 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>590.9472947965072</v>
+        <v>522.2339425664198</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36835,7 +36835,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,13 +36844,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36917,10 +36917,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,10 +37081,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>647.6020634880878</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37306,7 +37306,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>614.4119707098135</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37321,7 +37321,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37549,22 +37549,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>882.4696444268562</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>785.2736850426321</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37795,7 +37795,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737849</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>389.3800369577347</v>
       </c>
       <c r="L44" t="n">
-        <v>732.8107985467452</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
